--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6E77AC83-CEB7-416D-8951-4BDC8204D946}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laekov/oi/problemmaker/CTSC2018/day2/placement/data/data_maker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,18 +48,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -82,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,19 +366,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -403,13 +410,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>317</v>
       </c>
+      <c r="C2">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>106</v>
+      </c>
       <c r="E2">
         <v>50544</v>
       </c>
@@ -419,17 +432,26 @@
       <c r="G2">
         <v>3575327</v>
       </c>
+      <c r="J2">
+        <v>21649</v>
+      </c>
       <c r="K2">
         <v>5110163</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>329</v>
       </c>
+      <c r="C3">
+        <v>346</v>
+      </c>
+      <c r="D3">
+        <v>456</v>
+      </c>
       <c r="E3">
         <v>70491</v>
       </c>
@@ -439,17 +461,26 @@
       <c r="G3">
         <v>6339468</v>
       </c>
+      <c r="J3">
+        <v>113030</v>
+      </c>
       <c r="K3">
         <v>6473766</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>326</v>
       </c>
+      <c r="C4">
+        <v>358</v>
+      </c>
+      <c r="D4">
+        <v>462</v>
+      </c>
       <c r="E4">
         <v>70963</v>
       </c>
@@ -459,17 +490,26 @@
       <c r="G4">
         <v>6370345</v>
       </c>
+      <c r="J4">
+        <v>288016</v>
+      </c>
       <c r="K4">
         <v>6382056</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>320</v>
       </c>
+      <c r="C5">
+        <v>232</v>
+      </c>
+      <c r="D5">
+        <v>307</v>
+      </c>
       <c r="E5">
         <v>50617</v>
       </c>
@@ -478,6 +518,9 @@
       </c>
       <c r="G5">
         <v>6007740</v>
+      </c>
+      <c r="J5">
+        <v>144417</v>
       </c>
       <c r="K5">
         <v>5110629</v>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -432,8 +432,14 @@
       <c r="G2">
         <v>3575327</v>
       </c>
+      <c r="H2">
+        <v>1014</v>
+      </c>
+      <c r="I2">
+        <v>4977</v>
+      </c>
       <c r="J2">
-        <v>21649</v>
+        <v>21429</v>
       </c>
       <c r="K2">
         <v>5110163</v>
@@ -461,8 +467,14 @@
       <c r="G3">
         <v>6339468</v>
       </c>
+      <c r="H3">
+        <v>736048</v>
+      </c>
+      <c r="I3">
+        <v>337807</v>
+      </c>
       <c r="J3">
-        <v>113030</v>
+        <v>53398</v>
       </c>
       <c r="K3">
         <v>6473766</v>
@@ -490,8 +502,14 @@
       <c r="G4">
         <v>6370345</v>
       </c>
+      <c r="H4">
+        <v>732696</v>
+      </c>
+      <c r="I4">
+        <v>14192</v>
+      </c>
       <c r="J4">
-        <v>288016</v>
+        <v>8225</v>
       </c>
       <c r="K4">
         <v>6382056</v>
@@ -519,8 +537,14 @@
       <c r="G5">
         <v>6007740</v>
       </c>
+      <c r="H5">
+        <v>502615</v>
+      </c>
+      <c r="I5">
+        <v>8330</v>
+      </c>
       <c r="J5">
-        <v>144417</v>
+        <v>5031</v>
       </c>
       <c r="K5">
         <v>5110629</v>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -418,7 +418,7 @@
         <v>317</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>106</v>
@@ -439,7 +439,7 @@
         <v>4977</v>
       </c>
       <c r="J2">
-        <v>21429</v>
+        <v>22328</v>
       </c>
       <c r="K2">
         <v>5110163</v>
@@ -474,7 +474,7 @@
         <v>337807</v>
       </c>
       <c r="J3">
-        <v>53398</v>
+        <v>113030</v>
       </c>
       <c r="K3">
         <v>6473766</v>
@@ -503,13 +503,13 @@
         <v>6370345</v>
       </c>
       <c r="H4">
-        <v>732696</v>
+        <v>7824</v>
       </c>
       <c r="I4">
         <v>14192</v>
       </c>
       <c r="J4">
-        <v>8225</v>
+        <v>30017</v>
       </c>
       <c r="K4">
         <v>6382056</v>
@@ -538,13 +538,13 @@
         <v>6007740</v>
       </c>
       <c r="H5">
-        <v>502615</v>
+        <v>5031</v>
       </c>
       <c r="I5">
-        <v>8330</v>
+        <v>8331</v>
       </c>
       <c r="J5">
-        <v>5031</v>
+        <v>53398</v>
       </c>
       <c r="K5">
         <v>5110629</v>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -418,7 +418,7 @@
         <v>317</v>
       </c>
       <c r="C2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>106</v>
@@ -439,7 +439,7 @@
         <v>4977</v>
       </c>
       <c r="J2">
-        <v>22328</v>
+        <v>21819</v>
       </c>
       <c r="K2">
         <v>5110163</v>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -370,7 +370,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>4977</v>
       </c>
       <c r="J2">
-        <v>21819</v>
+        <v>21537</v>
       </c>
       <c r="K2">
         <v>5110163</v>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laekov/oi/problemmaker/CTSC2018/day2/placement/data/data_maker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8753D13E-E010-48BD-872E-D4D5E0156B9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20320"/>
+    <workbookView xWindow="0" yWindow="438" windowWidth="38400" windowHeight="20322" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -48,18 +44,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -89,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,19 +362,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.94921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B1">
         <v>1</v>
       </c>
@@ -410,7 +407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +442,7 @@
         <v>5110163</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -480,7 +477,7 @@
         <v>6473766</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -515,7 +512,7 @@
         <v>6382056</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -532,7 +529,7 @@
         <v>50617</v>
       </c>
       <c r="F5">
-        <v>59239</v>
+        <v>59329</v>
       </c>
       <c r="G5">
         <v>6007740</v>
@@ -548,6 +545,356 @@
       </c>
       <c r="K5">
         <v>5110629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1000000000</v>
+      </c>
+      <c r="C7">
+        <v>1000000000</v>
+      </c>
+      <c r="D7">
+        <v>1000000000</v>
+      </c>
+      <c r="E7">
+        <v>1000000000</v>
+      </c>
+      <c r="F7">
+        <v>1000000000</v>
+      </c>
+      <c r="G7">
+        <v>1000000000</v>
+      </c>
+      <c r="H7">
+        <v>1000000000</v>
+      </c>
+      <c r="I7">
+        <v>1000000000</v>
+      </c>
+      <c r="J7">
+        <v>1000000000</v>
+      </c>
+      <c r="K7">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>462</v>
+      </c>
+      <c r="E8">
+        <v>70963</v>
+      </c>
+      <c r="F8">
+        <v>72776</v>
+      </c>
+      <c r="G8">
+        <v>6370345</v>
+      </c>
+      <c r="H8">
+        <v>736048</v>
+      </c>
+      <c r="I8">
+        <v>337807</v>
+      </c>
+      <c r="J8">
+        <v>30000</v>
+      </c>
+      <c r="K8">
+        <v>5110629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9">
+        <v>456</v>
+      </c>
+      <c r="E9">
+        <v>70491</v>
+      </c>
+      <c r="F9">
+        <v>72143</v>
+      </c>
+      <c r="G9">
+        <v>6339468</v>
+      </c>
+      <c r="H9">
+        <v>7824</v>
+      </c>
+      <c r="I9">
+        <v>14192</v>
+      </c>
+      <c r="J9">
+        <v>29000</v>
+      </c>
+      <c r="K9">
+        <v>5110500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>425</v>
+      </c>
+      <c r="C10">
+        <v>425</v>
+      </c>
+      <c r="D10">
+        <v>307</v>
+      </c>
+      <c r="E10">
+        <v>50617</v>
+      </c>
+      <c r="F10">
+        <v>59329</v>
+      </c>
+      <c r="G10">
+        <v>6007740</v>
+      </c>
+      <c r="H10">
+        <v>5031</v>
+      </c>
+      <c r="I10">
+        <v>8331</v>
+      </c>
+      <c r="J10">
+        <v>23000</v>
+      </c>
+      <c r="K10">
+        <v>5110400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>252</v>
+      </c>
+      <c r="E11">
+        <v>50600</v>
+      </c>
+      <c r="F11">
+        <v>59281</v>
+      </c>
+      <c r="G11">
+        <v>5000000</v>
+      </c>
+      <c r="H11">
+        <v>5000</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>22000</v>
+      </c>
+      <c r="K11">
+        <v>5110300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>350</v>
+      </c>
+      <c r="C12">
+        <v>375</v>
+      </c>
+      <c r="D12">
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>50544</v>
+      </c>
+      <c r="F12">
+        <v>59281</v>
+      </c>
+      <c r="G12">
+        <v>3575327</v>
+      </c>
+      <c r="H12">
+        <v>1014</v>
+      </c>
+      <c r="I12">
+        <v>4977</v>
+      </c>
+      <c r="J12">
+        <v>21700</v>
+      </c>
+      <c r="K12">
+        <v>5110200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>329</v>
+      </c>
+      <c r="C13">
+        <v>358</v>
+      </c>
+      <c r="D13">
+        <v>106</v>
+      </c>
+      <c r="E13">
+        <v>50544</v>
+      </c>
+      <c r="F13">
+        <v>59281</v>
+      </c>
+      <c r="G13">
+        <v>3575327</v>
+      </c>
+      <c r="H13">
+        <v>1014</v>
+      </c>
+      <c r="I13">
+        <v>4977</v>
+      </c>
+      <c r="J13">
+        <v>21600</v>
+      </c>
+      <c r="K13">
+        <v>5110190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>326</v>
+      </c>
+      <c r="C14">
+        <v>346</v>
+      </c>
+      <c r="D14">
+        <v>106</v>
+      </c>
+      <c r="E14">
+        <v>50544</v>
+      </c>
+      <c r="F14">
+        <v>59281</v>
+      </c>
+      <c r="G14">
+        <v>3575327</v>
+      </c>
+      <c r="H14">
+        <v>1014</v>
+      </c>
+      <c r="I14">
+        <v>4977</v>
+      </c>
+      <c r="J14">
+        <v>21550</v>
+      </c>
+      <c r="K14">
+        <v>5110180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>317</v>
+      </c>
+      <c r="C15">
+        <v>232</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+      <c r="E15">
+        <v>50544</v>
+      </c>
+      <c r="F15">
+        <v>59281</v>
+      </c>
+      <c r="G15">
+        <v>3575327</v>
+      </c>
+      <c r="H15">
+        <v>1014</v>
+      </c>
+      <c r="I15">
+        <v>4977</v>
+      </c>
+      <c r="J15">
+        <v>21540</v>
+      </c>
+      <c r="K15">
+        <v>5110170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>317</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>106</v>
+      </c>
+      <c r="E16">
+        <v>50544</v>
+      </c>
+      <c r="F16">
+        <v>59281</v>
+      </c>
+      <c r="G16">
+        <v>3575327</v>
+      </c>
+      <c r="H16">
+        <v>1014</v>
+      </c>
+      <c r="I16">
+        <v>4977</v>
+      </c>
+      <c r="J16">
+        <v>21537</v>
+      </c>
+      <c r="K16">
+        <v>5110163</v>
       </c>
     </row>
   </sheetData>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8753D13E-E010-48BD-872E-D4D5E0156B9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42CE1E22-3CE4-4A15-B349-74574445E08E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="438" windowWidth="38400" windowHeight="20322" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -439,7 +439,7 @@
         <v>21537</v>
       </c>
       <c r="K2">
-        <v>5110163</v>
+        <v>5142063</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
@@ -474,7 +474,7 @@
         <v>113030</v>
       </c>
       <c r="K3">
-        <v>6473766</v>
+        <v>7140573</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
@@ -509,7 +509,7 @@
         <v>30017</v>
       </c>
       <c r="K4">
-        <v>6382056</v>
+        <v>7088435</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
@@ -544,7 +544,7 @@
         <v>53398</v>
       </c>
       <c r="K5">
-        <v>5110629</v>
+        <v>5142451</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
@@ -614,7 +614,7 @@
         <v>30000</v>
       </c>
       <c r="K8">
-        <v>5110629</v>
+        <v>5142451</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
@@ -649,7 +649,7 @@
         <v>29000</v>
       </c>
       <c r="K9">
-        <v>5110500</v>
+        <v>5142400</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
@@ -684,7 +684,7 @@
         <v>23000</v>
       </c>
       <c r="K10">
-        <v>5110400</v>
+        <v>5142300</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
@@ -719,7 +719,7 @@
         <v>22000</v>
       </c>
       <c r="K11">
-        <v>5110300</v>
+        <v>5142200</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
@@ -754,7 +754,7 @@
         <v>21700</v>
       </c>
       <c r="K12">
-        <v>5110200</v>
+        <v>5142150</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
@@ -789,7 +789,7 @@
         <v>21600</v>
       </c>
       <c r="K13">
-        <v>5110190</v>
+        <v>5142100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
@@ -824,7 +824,7 @@
         <v>21550</v>
       </c>
       <c r="K14">
-        <v>5110180</v>
+        <v>5142080</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
@@ -859,7 +859,7 @@
         <v>21540</v>
       </c>
       <c r="K15">
-        <v>5110170</v>
+        <v>5142070</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
@@ -894,7 +894,7 @@
         <v>21537</v>
       </c>
       <c r="K16">
-        <v>5110163</v>
+        <v>5142063</v>
       </c>
     </row>
   </sheetData>

--- a/day2/placement/data/data_maker/result.xlsx
+++ b/day2/placement/data/data_maker/result.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{42CE1E22-3CE4-4A15-B349-74574445E08E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laekov/oi/problemmaker/CTSC2018/day2/placement/data/data_maker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="438" windowWidth="38400" windowHeight="20322" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -44,18 +48,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -85,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -362,20 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J7" sqref="J7:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.94921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -407,7 +411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +446,7 @@
         <v>5142063</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +481,7 @@
         <v>7140573</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -512,7 +516,7 @@
         <v>7088435</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +551,7 @@
         <v>5142451</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -582,7 +586,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -617,7 +621,7 @@
         <v>5142451</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -646,13 +650,13 @@
         <v>14192</v>
       </c>
       <c r="J9">
-        <v>29000</v>
+        <v>21700</v>
       </c>
       <c r="K9">
         <v>5142400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -681,13 +685,13 @@
         <v>8331</v>
       </c>
       <c r="J10">
-        <v>23000</v>
+        <v>21600</v>
       </c>
       <c r="K10">
         <v>5142300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -716,13 +720,13 @@
         <v>5000</v>
       </c>
       <c r="J11">
-        <v>22000</v>
+        <v>21550</v>
       </c>
       <c r="K11">
         <v>5142200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -751,13 +755,13 @@
         <v>4977</v>
       </c>
       <c r="J12">
-        <v>21700</v>
+        <v>21540</v>
       </c>
       <c r="K12">
         <v>5142150</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -786,13 +790,13 @@
         <v>4977</v>
       </c>
       <c r="J13">
-        <v>21600</v>
+        <v>21537</v>
       </c>
       <c r="K13">
         <v>5142100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -821,13 +825,13 @@
         <v>4977</v>
       </c>
       <c r="J14">
-        <v>21550</v>
+        <v>19753</v>
       </c>
       <c r="K14">
         <v>5142080</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -856,13 +860,13 @@
         <v>4977</v>
       </c>
       <c r="J15">
-        <v>21540</v>
+        <v>19413</v>
       </c>
       <c r="K15">
         <v>5142070</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -891,7 +895,7 @@
         <v>4977</v>
       </c>
       <c r="J16">
-        <v>21537</v>
+        <v>19404</v>
       </c>
       <c r="K16">
         <v>5142063</v>
